--- a/Relação Exames.xlsx
+++ b/Relação Exames.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Documents\TCC Docs\TCC Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Documents\GitHub\TCC-Docs-and-Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6255" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Relação Exames" sheetId="3" r:id="rId1"/>
     <sheet name="Exames Einstein" sheetId="4" r:id="rId2"/>
     <sheet name="Exames Fleury" sheetId="5" r:id="rId3"/>
     <sheet name="Exames HSL" sheetId="6" r:id="rId4"/>
+    <sheet name="Correspondência Colunas CAT" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="212">
   <si>
     <t>Hemograma com Plaquetas - RDW</t>
   </si>
@@ -612,6 +613,59 @@
   </si>
   <si>
     <t>numérico</t>
+  </si>
+  <si>
+    <t>HOSPITAL EINSTEIN</t>
+  </si>
+  <si>
+    <t>categórico</t>
+  </si>
+  <si>
+    <t>URINA TIPO I - JATO MEDIO - Aspecto</t>
+  </si>
+  <si>
+    <t>Ligeiramente Turvo</t>
+  </si>
+  <si>
+    <t>Turvo</t>
+  </si>
+  <si>
+    <t>Coloração Alterada</t>
+  </si>
+  <si>
+    <t>Sanguinolenta</t>
+  </si>
+  <si>
+    <t>URINA TIPO I - JATO MEDIO - Cor</t>
+  </si>
+  <si>
+    <t>Amerela escuro</t>
+  </si>
+  <si>
+    <t>Alaranjada</t>
+  </si>
+  <si>
+    <t>Vermelha</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Marrom/Castanho</t>
+  </si>
+  <si>
+    <t>positiva</t>
+  </si>
+  <si>
+    <t>URINA TIPO I - JATO MEDIO - Corpos cetônicos
+URINA TIPO I - JATO MEDIO - Nitrito</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>URINA TIPO I - JATO MEDIO - Urubilinogênio
+DIAGNOSTICO_COVID</t>
   </si>
 </sst>
 </file>
@@ -679,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -689,6 +743,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,672 +1029,826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" t="s">
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" t="s">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" t="s">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" t="s">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" t="s">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" t="s">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" t="s">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" t="s">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" t="s">
+      <c r="E9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" t="s">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" t="s">
+      <c r="E10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" t="s">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" t="s">
+      <c r="E11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" t="s">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" t="s">
+      <c r="E12" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" t="s">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" t="s">
+      <c r="E13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" t="s">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" t="s">
+      <c r="E14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" t="s">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" t="s">
+      <c r="E15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" t="s">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" t="s">
+      <c r="E16" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" t="s">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" t="s">
+      <c r="E17" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" t="s">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" t="s">
+      <c r="E18" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" t="s">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" t="s">
+      <c r="E19" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" t="s">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" t="s">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" t="s">
+      <c r="E21" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" t="s">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" t="s">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" t="s">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" t="s">
+      <c r="E24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" t="s">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" t="s">
+      <c r="E25" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" t="s">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" t="s">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" t="s">
+      <c r="E27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" t="s">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" t="s">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" t="s">
+      <c r="E29" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" t="s">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="B30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" t="s">
         <v>160</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" t="s">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="B31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" t="s">
+      <c r="F31" s="6"/>
+      <c r="G31" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1646,8 +1860,9 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1659,8 +1874,9 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1672,8 +1888,9 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1685,8 +1902,9 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1698,8 +1916,9 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1711,8 +1930,9 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1724,8 +1944,9 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1737,8 +1958,9 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1750,8 +1972,9 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1763,8 +1986,9 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1776,8 +2000,9 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1789,8 +2014,9 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1802,8 +2028,9 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1815,8 +2042,9 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1828,8 +2056,9 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1841,8 +2070,9 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1854,8 +2084,9 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1867,8 +2098,9 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1880,6 +2112,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1889,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,7 +2134,7 @@
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1912,15 +2145,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1930,16 +2166,22 @@
       <c r="C3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1949,16 +2191,22 @@
       <c r="C5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1968,8 +2216,11 @@
       <c r="C7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1979,16 +2230,22 @@
       <c r="C8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1998,16 +2255,22 @@
       <c r="C10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2017,8 +2280,11 @@
       <c r="C12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2028,8 +2294,11 @@
       <c r="C13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2039,8 +2308,11 @@
       <c r="C14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2050,8 +2322,11 @@
       <c r="C15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2061,16 +2336,22 @@
       <c r="C16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2080,16 +2361,22 @@
       <c r="C18" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2099,8 +2386,11 @@
       <c r="C20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -2110,8 +2400,11 @@
       <c r="C21" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2121,48 +2414,66 @@
       <c r="C22" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2172,32 +2483,44 @@
       <c r="C28" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2619,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -3005,4 +3328,155 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="G1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="J1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>